--- a/data/trans_dic/P02E$nadie-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P02E$nadie-Provincia-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8379635793270547</v>
+        <v>0.8526877013894266</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7912088180077814</v>
+        <v>0.7879948028561272</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7679922001229956</v>
+        <v>0.7606890189827124</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8804631910782703</v>
+        <v>0.8773542963611076</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.788588578107372</v>
+        <v>0.7843873137933769</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6676183645062362</v>
+        <v>0.6598609829427335</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8882606506767576</v>
+        <v>0.8872353514770391</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8106052582708286</v>
+        <v>0.8066260411376166</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7360089986435039</v>
+        <v>0.7370919345609094</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9716841082812717</v>
+        <v>0.9713441597699182</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9246164684231546</v>
+        <v>0.9286822589565429</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9339063788743583</v>
+        <v>0.9318464377934205</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9793408407782473</v>
+        <v>0.9794339123388324</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9154993419055178</v>
+        <v>0.918644755461493</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8346358359299586</v>
+        <v>0.8308253881808142</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9682128989404224</v>
+        <v>0.9660225754863165</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9062414021521201</v>
+        <v>0.9082144108721469</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8569978322476228</v>
+        <v>0.8555885127775944</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8606463904993987</v>
+        <v>0.8537263085764616</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8783694895039911</v>
+        <v>0.8812611350055943</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8140795899286237</v>
+        <v>0.8079683211268619</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7309169330349979</v>
+        <v>0.7295739361141074</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8925836514500246</v>
+        <v>0.8881251571111596</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8602731582107779</v>
+        <v>0.8600022549852608</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7919555640316975</v>
+        <v>0.7954915321367969</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8997460112947127</v>
+        <v>0.9000059733662417</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8640919962963777</v>
+        <v>0.8611719907847133</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.985664511737804</v>
+        <v>0.9850425537809954</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9663871825740163</v>
+        <v>0.9693090597815063</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9595044600300242</v>
+        <v>0.94904445119632</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8688764813858367</v>
+        <v>0.8678073252825802</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9609565344517066</v>
+        <v>0.960130841814239</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.955391952953811</v>
+        <v>0.9549600368407054</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8920357831763999</v>
+        <v>0.8940677495571916</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.953679829603721</v>
+        <v>0.9557735025399224</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9426129040913148</v>
+        <v>0.9421960427387585</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7892669001063791</v>
+        <v>0.796456224474631</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8708457782238416</v>
+        <v>0.8694538199328354</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8435931609381843</v>
+        <v>0.8301244108093488</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8854030878308645</v>
+        <v>0.8911934384286077</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8265567755652888</v>
+        <v>0.8244953090361045</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7790372655828551</v>
+        <v>0.7808488226158815</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8668787984677347</v>
+        <v>0.876392805995038</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.865694504260823</v>
+        <v>0.8652470072695118</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8259102857960694</v>
+        <v>0.8303163842263505</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9429276458103186</v>
+        <v>0.945610641062324</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.977044978084413</v>
+        <v>0.9703432601873822</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.97056049555822</v>
+        <v>0.9702073972497813</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9736551997619908</v>
+        <v>0.9808879925057724</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.936327918541901</v>
+        <v>0.9367701409144332</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.932651059499789</v>
+        <v>0.9337729356776645</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9528901789666204</v>
+        <v>0.9539542456334759</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9427188099222097</v>
+        <v>0.9438307800970808</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9317476363187771</v>
+        <v>0.9371402396132411</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8016946824608442</v>
+        <v>0.8038822308254083</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7821009147477678</v>
+        <v>0.7792411640586892</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8022671581054669</v>
+        <v>0.7986362912613149</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.822923112156709</v>
+        <v>0.8259070825891641</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7847669600773159</v>
+        <v>0.7784110489600504</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8494610941265724</v>
+        <v>0.8361389607268165</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8422391999797519</v>
+        <v>0.8417566729229246</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8063154150269164</v>
+        <v>0.8066349611500804</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8569736485006811</v>
+        <v>0.85170204243007</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9428220209663023</v>
+        <v>0.9446654279262314</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9330686948724618</v>
+        <v>0.9312212536390769</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9529490397252496</v>
+        <v>0.9623484152254349</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9420564560576772</v>
+        <v>0.9427306114042773</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.89136070581858</v>
+        <v>0.8929352535195728</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9513193335645818</v>
+        <v>0.95045788533611</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.931510201683011</v>
+        <v>0.92777773931688</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8927350517140873</v>
+        <v>0.8912236343149713</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9413309757860954</v>
+        <v>0.9411353326645771</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6612166869549584</v>
+        <v>0.6524877585067888</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6976858521644975</v>
+        <v>0.6810243604692247</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8490034758273354</v>
+        <v>0.8487565143610754</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7600267637776464</v>
+        <v>0.7462640154505278</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7933698015819733</v>
+        <v>0.7982293944514233</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8335076668039183</v>
+        <v>0.8339972220347548</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.773899023385704</v>
+        <v>0.7644187775737927</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7976433250715792</v>
+        <v>0.7984810231258218</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8784466431013827</v>
+        <v>0.8755888320209151</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9454938198027387</v>
+        <v>0.9441447600549746</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9213037919802737</v>
+        <v>0.917347609476029</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9859535591652893</v>
+        <v>0.9781326343686674</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9556887546725735</v>
+        <v>0.9408720557001986</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9351696144104996</v>
+        <v>0.9359479952135659</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9682348311152021</v>
+        <v>0.961379886994752</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9276104511467828</v>
+        <v>0.9286037455259634</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9121646476032641</v>
+        <v>0.9129718675813139</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9618075910480971</v>
+        <v>0.96100696398032</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7691579404440853</v>
+        <v>0.793015085739632</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8678840597925169</v>
+        <v>0.8686312338759808</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8440919842404788</v>
+        <v>0.8305133464924679</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.8032535770122103</v>
+        <v>0.8167974696831382</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8885333113510461</v>
+        <v>0.8898426085645669</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.8624733317656685</v>
+        <v>0.8615041712729714</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.8371220101662002</v>
+        <v>0.8305776336026147</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.9006523916269781</v>
+        <v>0.9055946037294715</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.8830656271722411</v>
+        <v>0.8823496385543967</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9666641571536561</v>
+        <v>0.9672824651189448</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9777454379169167</v>
+        <v>0.9770430208596766</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9821960109972253</v>
+        <v>0.9790760106357146</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.955940216381215</v>
+        <v>0.9616420054714562</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9815541209386487</v>
+        <v>0.9815351453947787</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9837293298853657</v>
+        <v>0.9839269625615144</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9463313353176305</v>
+        <v>0.9455985026724862</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.9695205408064818</v>
+        <v>0.9709895663444554</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.973832317204294</v>
+        <v>0.9743426311209802</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8112868085046709</v>
+        <v>0.8134150692366534</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8740331367719508</v>
+        <v>0.8725318932066913</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8422932794673107</v>
+        <v>0.8485773366960293</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9641194313498674</v>
+        <v>0.963928687586503</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9127479573317604</v>
+        <v>0.918636364170807</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.7931872701409229</v>
+        <v>0.7953019115251669</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9260627690992222</v>
+        <v>0.9284995124889946</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.9105247118334623</v>
+        <v>0.9109672261540898</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.8330571835172402</v>
+        <v>0.832016145615044</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9395985043617485</v>
+        <v>0.9374124893768275</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9551206680206455</v>
+        <v>0.9532970497244074</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9555187559395264</v>
+        <v>0.9564010399273511</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9956022979502579</v>
+        <v>0.9955792879367571</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9685980692471854</v>
+        <v>0.9684995626726517</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8983267726455572</v>
+        <v>0.899498065362262</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9723398199720881</v>
+        <v>0.9736373724521221</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.9547612586189586</v>
+        <v>0.9544686909718393</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9078577880080869</v>
+        <v>0.9088866210291332</v>
       </c>
     </row>
     <row r="25">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8239576580357699</v>
+        <v>0.8175629366519097</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8993907395535037</v>
+        <v>0.8979866912934918</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8858522487635383</v>
+        <v>0.8844319116507184</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.8650240421239892</v>
+        <v>0.8657733898686235</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.927737374254287</v>
+        <v>0.9288403136489969</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.8365594843638551</v>
+        <v>0.832697934186167</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.8684687547765018</v>
+        <v>0.8679246501009665</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.9272299600808817</v>
+        <v>0.9255424849061407</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.8684765921134405</v>
+        <v>0.8685790137760451</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9394428249777528</v>
+        <v>0.9380852588802384</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9700215385715983</v>
+        <v>0.9656617340849762</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9571105094389105</v>
+        <v>0.9545114831301458</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.9501037416769924</v>
+        <v>0.9495038586724335</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.9746710029280935</v>
+        <v>0.9731037022626429</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.9115064271068277</v>
+        <v>0.9133191027552998</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.9383620079013075</v>
+        <v>0.9370245839877788</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.9639328653313499</v>
+        <v>0.9661381451822587</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.9210944206805971</v>
+        <v>0.9213147393485028</v>
       </c>
     </row>
     <row r="28">
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.8710199830183961</v>
+        <v>0.8715370712004039</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.8936977993490172</v>
+        <v>0.8931986298003862</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.8927742835642811</v>
+        <v>0.8928430151555935</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.8983379238570088</v>
+        <v>0.8979296298487783</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.9006565311358972</v>
+        <v>0.9013368152973624</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.8548539657877792</v>
+        <v>0.8565147581687871</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.8931998794229092</v>
+        <v>0.8939354388389453</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.9031981677768497</v>
+        <v>0.9041474519593994</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.8769999626247312</v>
+        <v>0.875940457874665</v>
       </c>
     </row>
     <row r="30">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.9214278025702569</v>
+        <v>0.9215998111948164</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.9302573624778274</v>
+        <v>0.9312473656130823</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.9345250465738693</v>
+        <v>0.9333362902076244</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.9320433876119304</v>
+        <v>0.932868487000294</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.9292349408907533</v>
+        <v>0.9306179494005015</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.8963810668211033</v>
+        <v>0.8970140388982013</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.9238293545873003</v>
+        <v>0.9222774737741575</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.9259768071301965</v>
+        <v>0.9263892854910537</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.906276224755095</v>
+        <v>0.9057977609822012</v>
       </c>
     </row>
     <row r="31">
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>54263</v>
+        <v>55217</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>70351</v>
+        <v>70065</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>56715</v>
+        <v>56175</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>91799</v>
+        <v>91475</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>111164</v>
+        <v>110572</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>65923</v>
+        <v>65157</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>150132</v>
+        <v>149959</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>186344</v>
+        <v>185430</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>127029</v>
+        <v>127215</v>
       </c>
     </row>
     <row r="7">
@@ -1874,31 +1874,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>62922</v>
+        <v>62900</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>82213</v>
+        <v>82575</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>68967</v>
+        <v>68815</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>102108</v>
+        <v>102118</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>129054</v>
+        <v>129498</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>82415</v>
+        <v>82039</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>163645</v>
+        <v>163275</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>208329</v>
+        <v>208783</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>147910</v>
+        <v>147667</v>
       </c>
     </row>
     <row r="8">
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>59403</v>
+        <v>58925</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>113670</v>
+        <v>114044</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>65063</v>
+        <v>64574</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>100835</v>
+        <v>100650</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>189463</v>
+        <v>188517</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>115351</v>
+        <v>115315</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>163917</v>
+        <v>164649</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>307420</v>
+        <v>307509</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>184923</v>
+        <v>184298</v>
       </c>
     </row>
     <row r="11">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>68032</v>
+        <v>67989</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>125060</v>
+        <v>125438</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>76686</v>
+        <v>75850</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>119868</v>
+        <v>119720</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>203976</v>
+        <v>203801</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>128106</v>
+        <v>128048</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>184632</v>
+        <v>185052</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>325848</v>
+        <v>326563</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>201727</v>
+        <v>201637</v>
       </c>
     </row>
     <row r="12">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>54955</v>
+        <v>55456</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>81408</v>
+        <v>81277</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>50512</v>
+        <v>49705</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>93136</v>
+        <v>93746</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>115535</v>
+        <v>115247</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>62524</v>
+        <v>62669</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>151546</v>
+        <v>153209</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>201931</v>
+        <v>201827</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>115739</v>
+        <v>116356</v>
       </c>
     </row>
     <row r="15">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>65654</v>
+        <v>65841</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>91335</v>
+        <v>90709</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>58114</v>
+        <v>58093</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>102420</v>
+        <v>103181</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>130879</v>
+        <v>130941</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>74853</v>
+        <v>74943</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>166582</v>
+        <v>166768</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>219898</v>
+        <v>220157</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>130570</v>
+        <v>131326</v>
       </c>
     </row>
     <row r="16">
@@ -2271,31 +2271,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>68566</v>
+        <v>68753</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>86965</v>
+        <v>86647</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>47502</v>
+        <v>47287</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>96075</v>
+        <v>96423</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>141927</v>
+        <v>140777</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>100676</v>
+        <v>99098</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>170363</v>
+        <v>170265</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>235481</v>
+        <v>235575</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>152308</v>
+        <v>151371</v>
       </c>
     </row>
     <row r="19">
@@ -2306,31 +2306,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>80636</v>
+        <v>80793</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>103752</v>
+        <v>103546</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>56424</v>
+        <v>56981</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>109983</v>
+        <v>110062</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>161204</v>
+        <v>161489</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>112748</v>
+        <v>112646</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>188420</v>
+        <v>187665</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>260720</v>
+        <v>260278</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>167301</v>
+        <v>167266</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>20491</v>
+        <v>20221</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>38327</v>
+        <v>37412</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>61493</v>
+        <v>61475</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>40248</v>
+        <v>39519</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>73337</v>
+        <v>73786</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>69966</v>
+        <v>70007</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>64966</v>
+        <v>64170</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>117549</v>
+        <v>117673</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>137364</v>
+        <v>136918</v>
       </c>
     </row>
     <row r="23">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>29301</v>
+        <v>29259</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>50612</v>
+        <v>50394</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>71413</v>
+        <v>70846</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>50609</v>
+        <v>49825</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>86444</v>
+        <v>86516</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>81276</v>
+        <v>80700</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>77869</v>
+        <v>77953</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>134427</v>
+        <v>134546</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>150400</v>
+        <v>150275</v>
       </c>
     </row>
     <row r="24">
@@ -2559,31 +2559,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>45783</v>
+        <v>47203</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>71211</v>
+        <v>71272</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>52979</v>
+        <v>52126</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>55634</v>
+        <v>56572</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>97872</v>
+        <v>98016</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>60321</v>
+        <v>60254</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>107809</v>
+        <v>106966</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>173106</v>
+        <v>174056</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>117186</v>
+        <v>117091</v>
       </c>
     </row>
     <row r="27">
@@ -2594,31 +2594,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>57540</v>
+        <v>57577</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>80225</v>
+        <v>80167</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>61647</v>
+        <v>61451</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>66209</v>
+        <v>66604</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>108118</v>
+        <v>108116</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>68802</v>
+        <v>68816</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>121873</v>
+        <v>121779</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>186343</v>
+        <v>186625</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>129231</v>
+        <v>129299</v>
       </c>
     </row>
     <row r="28">
@@ -2703,31 +2703,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>90504</v>
+        <v>90741</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>187681</v>
+        <v>187359</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>103153</v>
+        <v>103923</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>214469</v>
+        <v>214427</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>258906</v>
+        <v>260576</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>161614</v>
+        <v>162045</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>309311</v>
+        <v>310125</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>453792</v>
+        <v>454012</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>271761</v>
+        <v>271421</v>
       </c>
     </row>
     <row r="31">
@@ -2738,31 +2738,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>104818</v>
+        <v>104574</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>205093</v>
+        <v>204701</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>117020</v>
+        <v>117128</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>221473</v>
+        <v>221468</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>274748</v>
+        <v>274720</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>183037</v>
+        <v>183275</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>324768</v>
+        <v>325202</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>475839</v>
+        <v>475693</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>296162</v>
+        <v>296498</v>
       </c>
     </row>
     <row r="32">
@@ -2847,31 +2847,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>111394</v>
+        <v>110530</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>188951</v>
+        <v>188656</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>200335</v>
+        <v>200014</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>170398</v>
+        <v>170545</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>331011</v>
+        <v>331405</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>269156</v>
+        <v>267914</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>288488</v>
+        <v>288307</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>525630</v>
+        <v>524673</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>475831</v>
+        <v>475887</v>
       </c>
     </row>
     <row r="35">
@@ -2882,31 +2882,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>127007</v>
+        <v>126823</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>203790</v>
+        <v>202874</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>216451</v>
+        <v>215863</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>187157</v>
+        <v>187039</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>347757</v>
+        <v>347198</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>293270</v>
+        <v>293853</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>311705</v>
+        <v>311261</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>546436</v>
+        <v>547686</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>504660</v>
+        <v>504781</v>
       </c>
     </row>
     <row r="36">
@@ -2991,31 +2991,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>545427</v>
+        <v>545751</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>880117</v>
+        <v>879626</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>675533</v>
+        <v>675585</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>903559</v>
+        <v>903148</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>1366203</v>
+        <v>1367235</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>949728</v>
+        <v>951573</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1457708</v>
+        <v>1458908</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>2259532</v>
+        <v>2261907</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1637930</v>
+        <v>1635951</v>
       </c>
     </row>
     <row r="39">
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>576993</v>
+        <v>577100</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>916121</v>
+        <v>917096</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>707124</v>
+        <v>706225</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>937460</v>
+        <v>938290</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1409554</v>
+        <v>1411652</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>995864</v>
+        <v>996567</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1507695</v>
+        <v>1505162</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>2316517</v>
+        <v>2317549</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1692608</v>
+        <v>1691714</v>
       </c>
     </row>
     <row r="40">
